--- a/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
+++ b/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (8)\Pizza-Delievery-System\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM main project\Pizza-Delievery-System\Pizza-delievry-system\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88740D90-222E-4BDB-8D05-605C130EE1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8B0E0-A109-4B31-82E9-7E96AAEE95F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{420ED039-64A4-44EE-925E-22693EDBA285}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t xml:space="preserve"> FOOD rest services   </t>
   </si>
@@ -274,6 +274,34 @@
   </si>
   <si>
     <t>Team members</t>
+  </si>
+  <si>
+    <t>{
+ StoreId:"101"
+ Name:"StoreName"
+ Street:"Store Street"
+ MobileNo:"99xxxxxxxx"
+ City:"StoreCity"
+ State:"StoreState"
+ Pincode:"Store Pincode"
+ }</t>
+  </si>
+  <si>
+    <t>return type:boolean
+if succssful then return 
+true 
+else
+return false</t>
+  </si>
+  <si>
+    <t>/store/update</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>authKey=session id 
+of admin</t>
   </si>
 </sst>
 </file>
@@ -631,7 +659,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +669,7 @@
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -866,18 +895,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>79</v>

--- a/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
+++ b/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM main project\Pizza-Delievery-System\Pizza-delievry-system\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8B0E0-A109-4B31-82E9-7E96AAEE95F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7261F-298E-4C53-801E-B5CFA121155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{420ED039-64A4-44EE-925E-22693EDBA285}"/>
   </bookViews>
@@ -287,21 +287,23 @@
  }</t>
   </si>
   <si>
-    <t>return type:boolean
-if succssful then return 
-true 
-else
-return false</t>
-  </si>
-  <si>
-    <t>/store/update</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>authKey=session id 
 of admin</t>
+  </si>
+  <si>
+    <t>/store</t>
+  </si>
+  <si>
+    <t>if succesful
+{
+ result:true
+}
+else{
+ result:false
+}</t>
   </si>
 </sst>
 </file>
@@ -658,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5257770C-153E-4746-BFF5-05EBB845E977}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,16 +908,16 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
         <v>82</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>79</v>

--- a/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
+++ b/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM main project\Pizza-Delievery-System\Pizza-delievry-system\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7261F-298E-4C53-801E-B5CFA121155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB367BB7-8983-4843-949E-AAEE2DBBD710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{420ED039-64A4-44EE-925E-22693EDBA285}"/>
   </bookViews>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5257770C-153E-4746-BFF5-05EBB845E977}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
+++ b/Pizza-delievry-system/src/main/resources/rest-services (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM main project\Pizza-Delievery-System\Pizza-delievry-system\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB367BB7-8983-4843-949E-AAEE2DBBD710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B47D40-AA90-456B-AC36-F53017E14147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{420ED039-64A4-44EE-925E-22693EDBA285}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="128">
   <si>
     <t xml:space="preserve"> FOOD rest services   </t>
   </si>
@@ -54,21 +54,9 @@
     <t>General</t>
   </si>
   <si>
-    <t xml:space="preserve"> whole details of food in json</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Admin </t>
   </si>
   <si>
-    <t>session id of admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whole details of food in json </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique id in json format </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sort Food Items By Price   </t>
   </si>
   <si>
@@ -78,12 +66,6 @@
     <t xml:space="preserve"> filter food by search text </t>
   </si>
   <si>
-    <t xml:space="preserve">search Text </t>
-  </si>
-  <si>
-    <t xml:space="preserve">type of food in string  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> filter food by type </t>
   </si>
   <si>
@@ -102,27 +84,15 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> get all store of a particular food is present</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Store rest services</t>
   </si>
   <si>
-    <t>Name or type of food in string</t>
-  </si>
-  <si>
     <t>get all foods availaible in a store</t>
   </si>
   <si>
-    <t xml:space="preserve">store name in string </t>
-  </si>
-  <si>
     <t>Add a store</t>
   </si>
   <si>
-    <t xml:space="preserve">details of strore in json </t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete a store </t>
   </si>
   <si>
@@ -138,21 +108,12 @@
     <t xml:space="preserve">login </t>
   </si>
   <si>
-    <t xml:space="preserve">username and password in string  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> User </t>
   </si>
   <si>
-    <t>Session id of user</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
-    <t>details of user in json</t>
-  </si>
-  <si>
     <t>logout</t>
   </si>
   <si>
@@ -162,33 +123,18 @@
     <t>change password of user</t>
   </si>
   <si>
-    <t>old password and new password in json</t>
-  </si>
-  <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
-    <t xml:space="preserve">session id of user </t>
-  </si>
-  <si>
     <t>update user details</t>
   </si>
   <si>
-    <t>updated details in json</t>
-  </si>
-  <si>
     <t>add items to cart</t>
   </si>
   <si>
-    <t>details of order in json</t>
-  </si>
-  <si>
     <t>remove items from cart</t>
   </si>
   <si>
-    <t>cart unique id</t>
-  </si>
-  <si>
     <t>place order</t>
   </si>
   <si>
@@ -204,15 +150,9 @@
     <t>add card details</t>
   </si>
   <si>
-    <t>details of card in json</t>
-  </si>
-  <si>
     <t>verify saved card details</t>
   </si>
   <si>
-    <t>saved card unique id</t>
-  </si>
-  <si>
     <t>Database relationship</t>
   </si>
   <si>
@@ -241,9 +181,6 @@
   </si>
   <si>
     <t>Response</t>
-  </si>
-  <si>
-    <t>{}</t>
   </si>
   <si>
     <t>URL</t>
@@ -297,26 +234,530 @@
     <t>/store</t>
   </si>
   <si>
-    <t>if succesful
+    <t xml:space="preserve">{
+CreditCardNumber:"creditCardNumber"
+ ValidFrom:"ValidFromDate in the form {month/year}"
+ Valid to: "ValidToDate in the form {month/year}"
+ Balance: Initial Balance in the account
+ }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authKey=session id 
+of user
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">authKey=session id 
+of user </t>
+  </si>
+  <si>
+    <t>/card</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/verifycard</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/order</t>
+  </si>
+  <si>
+    <t>/food</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+FoodId="999",
+Name="Food_Name",
+Type="Food_Type",
+FoodSize="Food_Size",
+Quantity="x",
+Price="x"
+}</t>
+  </si>
+  <si>
+    <t>{
+Name="Food_Name",
+Type="Food_Type",
+FoodSize="Food_Size",
+Quantity="x",
+Price="x"
+}</t>
+  </si>
+  <si>
+    <t>?foodid= id of food to be deleted</t>
+  </si>
+  <si>
+    <t>?search=string to be searched</t>
+  </si>
+  <si>
+    <t>/sortbyprice</t>
+  </si>
+  <si>
+    <t>/searchfood</t>
+  </si>
+  <si>
+    <t>?foodtype=type of food</t>
+  </si>
+  <si>
+    <t>[
 {
- result:true
+FoodId:"111"
+Name:"Food_Name",
+Type:"Food_Type",
+FoodSize:"Food_Size",
+Price:"x"
+Quantity:"x"
+},
+{
+FoodId:"112"
+Name:"Food_Name2",
+Type:"Food_Type2",
+FoodSize:"Food_Size2",
+Price:"xx"
+Quantity:"xx"
 }
-else{
- result:false
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+FoodId:"111"
+Name:"Food_Name",
+Type:"Food_Type",
+FoodSize:"Food_Size",
+Price:"x"
+Quantity:"x"
+},
+{
+FoodId:"112"
+Name:"Food_Name2",
+Type:"Food_Type2",
+FoodSize:"Food_Size2",
+Price:"xx"
+Quantity:"xx"
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+FoodId:"111"
+Name:"Food_Name",
+Type:"Food_Type",
+FoodSize:"Food_Size",
+Price:"less price"
+Quantity:"x"
+},
+{
+FoodId:"112"
+Name:"Food_Name2",
+Type:"Food_Type2",
+FoodSize:"Food_Size2",
+Price:"more price"
+Quantity:"xx"
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+FoodId:"111"
+Name:"Food_Name",
+Type:"foodtype",
+FoodSize:"Food_Size",
+Price:"x"
+Quantity:"x"
+},
+{
+FoodId:"112"
+Name:"Food_Name2",
+Type:"foodtype",
+FoodSize:"Food_Size2",
+Price:"xx"
+Quantity:"xx"
+}
+]</t>
+  </si>
+  <si>
+    <t>/foodbytype</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get all store where a particular food is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?id=storeid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "FirstName": "somename"
+ "LastName": "somename"
+ "DateOfBirth": "date"
+ "Gender": "gender"
+ "Street": "streetname"
+ "Location": "landmark"
+ "City": "cityname"
+ "State": "statename"
+ "Pincode": "pin" 
+ "MobileNo": 9xxxxxxxx
+ "EmailId": "abc@xyz.com"
+"Password":"password"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "EmailId": "emailid"
+ "Password": "password"
+}
+</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/register
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authKey=
+sessionId of 
+user </t>
+  </si>
+  <si>
+    <t>{ 
+ "UserID":101
+ "FirstName": "somename"
+ "LastName": "somename"
+ "DateOfBirth": "date"
+ "Gender": "gender"
+ "Street": "streetname"
+ "Location": "landmark"
+ "City": "cityname"
+ "State": "statename"
+ "Pincode": "pin" 
+ "MobileNo": 9xxxxxxxx
+ "EmailId": "abc@xyz.com"
 }</t>
+  </si>
+  <si>
+    <t>/profile</t>
+  </si>
+  <si>
+    <t>get all credit card details</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>[
+{
+CreditCardNumber:"creditCardNumber"
+ ValidFrom:"ValidFromDate in the form {month/year}"
+ Valid to: "ValidToDate in the form {month/year}"
+ Balance: Initial Balance in the account
+},
+{
+CreditCardNumber:"creditCardNumber2"
+ ValidFrom:"ValidFromDate in the form {month/year}"
+ Valid to: "ValidToDate in the form {month/year}"
+ Balance: Initial Balance in the account
+  }
+]</t>
+  </si>
+  <si>
+    <t>{
+ CreditCardNumber:"creditCardNumber"
+}</t>
+  </si>
+  <si>
+    <t>{
+ OldPassword:"OldPassword",
+NewPassword:"New Password"
+ }</t>
+  </si>
+  <si>
+    <t>/changepassword</t>
+  </si>
+  <si>
+    <t>{
+ UserId:"1001",
+Fistname:"first name",
+Lastname:"last name",
+DateOfBirth:"0000-00-00",
+Gender:"male/female",
+Street:"street...",
+Location:"location..",
+City:"city",
+User_State:"state",
+Pincode:"110001",
+MobileNo:"9985669826",
+EmailId:"emailid@abc.com"
+}</t>
+  </si>
+  <si>
+    <t>/profileupdate</t>
+  </si>
+  <si>
+    <t>{
+ Cost:"Total Cost"
+FoodId:"10001",
+FoodType:"type of pizza",
+Quantity:"quantity of pizza",
+OrdateDate:"YYYY-DD-MM"
+}</t>
+  </si>
+  <si>
+    <t>/cart</t>
+  </si>
+  <si>
+    <t>?id=cart unique id</t>
+  </si>
+  <si>
+    <t>User-Cart</t>
+  </si>
+  <si>
+    <t>{
+ result:"result message string"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+OrderDate:"YYYY-DD-MM"
+StoreId:"storeId"
+OrderStatus:"Confirmed"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:1500
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+OrderId:"orderid"
+OrderDate:"YYYY-DD-MM"
+StoreId:"storeId"
+OrderStatus:"Confirmed"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:
+},{
+OrderId:"orderid2"
+OrderDate:"YYYY-DD-MM"
+StoreId:"storeId"
+OrderStatus:"Confirmed"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:}]
+</t>
+  </si>
+  <si>
+    <t>?date=(date in plain string ex: (20200101) 
+ for 1st jan 2020 in
+ form of YYYYDDMM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{
+OrderId:"orderid"
+OrderDate:"YYYY-DD-MM"
+StoreId:"storeId"
+OrderStatus:"status"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:
+}
+,
+{
+OrderId:"orderid2"
+OrderDate:"YYYY-DD-MM"
+StoreId:"storeId"
+OrderStatus:"status"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:
+}
+]
+</t>
+  </si>
+  <si>
+    <t>/orderbydate</t>
+  </si>
+  <si>
+    <t>/orderbystatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?status= confirmed || delievered 
+ || pending ||cancelled
+ in plain string
+</t>
+  </si>
+  <si>
+    <t>/updatestore</t>
+  </si>
+  <si>
+    <t>{
+ Name:"StoreName"
+ Street:"Store Street"
+ MobileNo:"99xxxxxxxx"
+ City:"StoreCity"
+ State:"StoreState"
+ Pincode:"Store Pincode"
+ }</t>
+  </si>
+  <si>
+    <t>?foodid= id of food to search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{
+ StoreId:"101"
+ Name:"StoreName"
+ Street:"Store Street"
+ MobileNo:"99xxxxxxxx"
+ City:"StoreCity"
+ State:"StoreState"
+ Pincode:"Store Pincode"
+ },
+{
+ StoreId:"102"
+ Name:"StoreName"
+ Street:"Store Street"
+ MobileNo:"99xxxxxxxx"
+ City:"StoreCity"
+ State:"StoreState"
+ Pincode:"Store Pincode"
+ }
+]
+</t>
+  </si>
+  <si>
+    <t>/storebyfood</t>
+  </si>
+  <si>
+    <t>/foodbystore</t>
+  </si>
+  <si>
+    <t>get all cart details</t>
+  </si>
+  <si>
+    <t>[
+{
+CartId:"Id of cart"
+ Cost:"Total Cost"
+FoodId:"10001",
+FoodType:"type of pizza",
+Quantity:"quantity of pizza",
+OrdateDate:"YYYY-DD-MM"
+},
+{
+CartId:"Id of cart1"
+ Cost:"Total Cost"
+FoodId:"10001",
+FoodType:"type of pizza",
+Quantity:"quantity of pizza",
+OrdateDate:"YYYY-DD-MM"
+}]</t>
+  </si>
+  <si>
+    <t>update cart details</t>
+  </si>
+  <si>
+    <t>add food items to store</t>
+  </si>
+  <si>
+    <t>delete food items from store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+OrderId:"orderid"
+OrderDate:"date"
+StoreId:"storeId"
+OrderStatus:"Confirmed"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:
+},{
+OrderId:"orderid2"
+OrderDate:"date"
+StoreId:"storeId"
+OrderStatus:"Confirmed"
+cartid:"id of cart"
+Street: "streetname"
+Location: "landmark"
+City: "cityname"
+State: "statename"
+PinCode:"pncode"
+mobile number:"99xxxxxxxx"
+totalprice:}]
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,9 +780,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,15 +1106,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5257770C-153E-4746-BFF5-05EBB845E977}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="5" width="18.140625" customWidth="1"/>
@@ -698,502 +1146,808 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="387" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="K22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" t="s">
         <v>58</v>
       </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" t="s">
-        <v>79</v>
+    </row>
+    <row r="37" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
